--- a/Backlog_250708.xlsx
+++ b/Backlog_250708.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKIIT\Semester 3\ITP4475\project\TAN_4475Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\HKIIT\3rd Sem\ITP4475 Big Data and AI Project Management\EA\TAN_4475Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20941E01-091F-4BCF-B930-97E99A04809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A8281-85DB-4AB4-A9D7-B7405738FC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -223,14 +223,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -470,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,42 +496,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -541,61 +584,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -879,24 +870,24 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="16"/>
-    <col min="2" max="4" width="9" style="17"/>
-    <col min="5" max="5" width="12.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="13"/>
+    <col min="2" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="12.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="11.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -907,15 +898,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
@@ -926,15 +917,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
@@ -945,15 +936,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
@@ -964,15 +955,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
@@ -983,15 +974,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1002,189 +993,151 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="18" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+    <row r="18" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -1194,6 +1147,11 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{CBDC53A0-9A93-4355-B5AA-5729B12D63CA}">
@@ -1214,34 +1172,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="20.58203125" style="4" customWidth="1"/>
-    <col min="3" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.6640625" style="16"/>
+    <col min="1" max="1" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="20.54296875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.6328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1273,25 +1231,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="36" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="27">
         <v>4</v>
       </c>
       <c r="I2" s="8"/>
@@ -1302,19 +1260,19 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1323,19 +1281,19 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1344,14 +1302,14 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="8" t="s">
         <v>35</v>
       </c>
@@ -1383,25 +1341,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="21">
         <v>12</v>
       </c>
       <c r="I6" s="8"/>
@@ -1412,19 +1370,19 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1433,19 +1391,19 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1454,19 +1412,19 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1475,134 +1433,134 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
+    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="34" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-    </row>
-    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="34" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="H11" s="21"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="24">
         <v>12</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-    </row>
-    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="34" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="20" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="34" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-    </row>
-    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="30">
         <v>12</v>
       </c>
       <c r="I15" s="8">
@@ -1627,19 +1585,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="20" t="s">
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="39" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="8">
         <v>0</v>
       </c>
@@ -1662,19 +1620,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+    <row r="17" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="8">
         <v>0</v>
       </c>
@@ -1697,19 +1655,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="8">
         <v>0</v>
       </c>
@@ -1732,150 +1690,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="21">
         <v>4</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="24" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="27" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="21">
         <v>8</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10" t="s">
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <v>1</v>
+      </c>
+      <c r="M19" s="17">
+        <v>1</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>2</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="36"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="H21" s="27"/>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21" s="20">
+        <v>0</v>
+      </c>
+      <c r="M21" s="20">
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
+        <v>2</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="21">
         <v>5</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="21">
         <v>12</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="29" t="s">
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="A12:A18"/>
@@ -1892,11 +1883,32 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G22 G24:G1048576" xr:uid="{36FE6D68-C8B8-40B5-85C6-BBF7E509D329}">

--- a/Backlog_250708.xlsx
+++ b/Backlog_250708.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\HKIIT\3rd Sem\ITP4475 Big Data and AI Project Management\EA\TAN_4475Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A8281-85DB-4AB4-A9D7-B7405738FC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5AABD8-3BBA-4B94-9DAB-6A877AD38218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1174,7 +1174,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Backlog_250708.xlsx
+++ b/Backlog_250708.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\HKIIT\3rd Sem\ITP4475 Big Data and AI Project Management\EA\TAN_4475Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKIIT\Semester 3\ITP4475\project\TAN_4475Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5AABD8-3BBA-4B94-9DAB-6A877AD38218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849E734-BCBC-48CF-838D-9239CBA781D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>under review</t>
-  </si>
-  <si>
     <t>Middle</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   <si>
     <t>New customer 
 predication</t>
+  </si>
+  <si>
+    <t>Cleansing</t>
   </si>
 </sst>
 </file>
@@ -223,14 +223,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -531,14 +531,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,9 +549,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,30 +584,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,28 +866,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A5312A-647C-422B-B39D-B5DE1B0F2C4B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="13"/>
+    <col min="1" max="1" width="8.6640625" style="13"/>
     <col min="2" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="12.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,15 +898,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
@@ -917,17 +917,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="8" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>8</v>
@@ -936,17 +936,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>8</v>
@@ -955,183 +955,183 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="26"/>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="18" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1172,84 +1172,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="3"/>
-    <col min="2" max="2" width="20.54296875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.6328125" style="13"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
+    <col min="3" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="C2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="27">
+      <c r="H2" s="30">
         <v>4</v>
       </c>
       <c r="I2" s="8"/>
@@ -1260,19 +1260,19 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="37"/>
+    <row r="3" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="H3" s="31"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1281,19 +1281,19 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="38"/>
+    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="35"/>
+        <v>26</v>
+      </c>
+      <c r="H4" s="32"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1302,19 +1302,19 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="21" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="29" t="s">
+      <c r="B6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="H6" s="23">
         <v>12</v>
       </c>
       <c r="I6" s="8"/>
@@ -1370,19 +1370,19 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="29"/>
+    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="H7" s="23"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1391,19 +1391,19 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="29"/>
+    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="H8" s="23"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1412,19 +1412,19 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="29"/>
+    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="H9" s="23"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1433,19 +1433,19 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="29"/>
+    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="H10" s="23"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1454,19 +1454,19 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="29"/>
+    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -1475,23 +1475,23 @@
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
+      <c r="B12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="H12" s="24">
         <v>12</v>
@@ -1504,17 +1504,17 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="17"/>
@@ -1525,17 +1525,17 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="17"/>
@@ -1546,21 +1546,21 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
-        <v>35</v>
+    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="30">
+        <v>26</v>
+      </c>
+      <c r="H15" s="37">
         <v>12</v>
       </c>
       <c r="I15" s="8">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="31"/>
+        <v>26</v>
+      </c>
+      <c r="H16" s="38"/>
       <c r="I16" s="8">
         <v>0</v>
       </c>
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+    <row r="17" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="31"/>
+        <v>26</v>
+      </c>
+      <c r="H17" s="38"/>
       <c r="I17" s="8">
         <v>0</v>
       </c>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+    <row r="18" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="31"/>
+        <v>26</v>
+      </c>
+      <c r="H18" s="38"/>
       <c r="I18" s="8">
         <v>0</v>
       </c>
@@ -1690,25 +1690,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>4</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="27" t="s">
-        <v>47</v>
+      <c r="B19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="21">
+        <v>26</v>
+      </c>
+      <c r="H19" s="23">
         <v>8</v>
       </c>
       <c r="I19" s="17">
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="28"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="H20" s="23"/>
       <c r="I20" s="17">
         <v>0</v>
       </c>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="H21" s="30"/>
       <c r="I21" s="20">
         <v>0</v>
       </c>
@@ -1803,25 +1803,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
         <v>5</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="21">
+        <v>46</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="23">
         <v>12</v>
       </c>
       <c r="I22" s="17">
@@ -1838,17 +1838,17 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="17">
         <v>0</v>
       </c>
@@ -1865,17 +1865,39 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F6:F11"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="A12:A18"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:E2"/>
@@ -1887,28 +1909,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G22 G24:G1048576" xr:uid="{36FE6D68-C8B8-40B5-85C6-BBF7E509D329}">

--- a/Backlog_250708.xlsx
+++ b/Backlog_250708.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKIIT\Semester 3\ITP4475\project\TAN_4475Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keean\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849E734-BCBC-48CF-838D-9239CBA781D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A3F77B-4692-4AC5-996B-98142CBBF811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Estimated effort</t>
-  </si>
-  <si>
     <t>Day 1</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>Discover useful information in existing datasets</t>
   </si>
   <si>
-    <t>Aggregate newly generated data with existing old data</t>
-  </si>
-  <si>
     <t>Check for missing values ​​in your data and take appropriate action</t>
   </si>
   <si>
@@ -213,13 +207,21 @@
   </si>
   <si>
     <t>Cleansing</t>
+  </si>
+  <si>
+    <t>Estimated effort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggregate newly generated data with existing old data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +234,13 @@
       <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -549,6 +558,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -557,12 +581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,15 +591,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,20 +875,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A5312A-647C-422B-B39D-B5DE1B0F2C4B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="13"/>
     <col min="2" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="12.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.06640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="11.08203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -898,12 +907,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -917,17 +926,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>8</v>
@@ -936,12 +945,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -955,12 +964,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="26"/>
@@ -974,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1004,7 +1013,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1015,7 +1024,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1026,7 +1035,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1037,7 +1046,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1048,7 +1057,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1059,7 +1068,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1070,7 +1079,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1081,57 +1090,57 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="18" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1153,6 +1162,7 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{CBDC53A0-9A93-4355-B5AA-5729B12D63CA}">
       <formula1>"Improvement,Data,Modelling,Cleansing"</formula1>
@@ -1172,34 +1182,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
-    <col min="3" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" style="4" customWidth="1"/>
+    <col min="3" max="5" width="20.46484375" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="14.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
@@ -1207,114 +1217,156 @@
         <v>16</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>36</v>
+      <c r="B2" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="30">
+      <c r="H2" s="27">
         <v>4</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23"/>
-      <c r="B3" s="31"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
-      <c r="B4" s="31"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
@@ -1341,226 +1393,352 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23">
         <v>2</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="H6" s="23">
         <v>12</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="36"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <v>3</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="H12" s="24">
         <v>12</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="24"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>3</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="36" t="s">
-        <v>48</v>
+      <c r="C14" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="24"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>6</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="37">
+        <v>25</v>
+      </c>
+      <c r="H15" s="30">
         <v>12</v>
       </c>
       <c r="I15" s="8">
@@ -1585,19 +1763,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="36" t="s">
-        <v>50</v>
+      <c r="C16" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="H16" s="31"/>
       <c r="I16" s="8">
         <v>0</v>
       </c>
@@ -1620,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23" t="s">
@@ -1630,9 +1808,9 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="H17" s="31"/>
       <c r="I17" s="8">
         <v>0</v>
       </c>
@@ -1655,19 +1833,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="36" t="s">
-        <v>47</v>
+      <c r="C18" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="H18" s="31"/>
       <c r="I18" s="8">
         <v>0</v>
       </c>
@@ -1690,23 +1868,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>4</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>55</v>
+      <c r="B19" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="30" t="s">
-        <v>46</v>
+      <c r="F19" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="23">
         <v>8</v>
@@ -1733,17 +1911,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="31"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="17">
@@ -1768,19 +1946,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="27"/>
       <c r="I21" s="20">
         <v>0</v>
       </c>
@@ -1803,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="23">
         <v>5</v>
       </c>
@@ -1811,15 +1989,15 @@
         <v>13</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22" s="23">
         <v>12</v>
@@ -1838,14 +2016,14 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -1858,41 +2036,21 @@
       <c r="K23" s="17">
         <v>0</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="C1:E1"/>
@@ -1909,12 +2067,42 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G22 G24:G1048576" xr:uid="{36FE6D68-C8B8-40B5-85C6-BBF7E509D329}">
       <formula1>"processing,in progress,completed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backlog_250708.xlsx
+++ b/Backlog_250708.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keean\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\HKIIT\3rd Sem\ITP4475 Big Data and AI Project Management\EA\TAN_4475Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A3F77B-4692-4AC5-996B-98142CBBF811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEECE0-B2B6-450E-8A20-CAB32DC2972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -221,24 +221,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -558,11 +558,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,30 +593,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -875,20 +875,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A5312A-647C-422B-B39D-B5DE1B0F2C4B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13"/>
+    <col min="1" max="1" width="8.6328125" style="13"/>
     <col min="2" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="12.06640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="11.06640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -945,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -983,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="14" customHeight="1">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="14" customHeight="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="14" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="14" customHeight="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="14" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="14" customHeight="1">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="14" customHeight="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1090,57 +1090,57 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="18" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="29" customHeight="1">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="29" customHeight="1">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="29" customHeight="1">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="29" customHeight="1">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="29" customHeight="1">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="29" customHeight="1">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" ht="29" customHeight="1">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="29" customHeight="1">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" ht="29" customHeight="1">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" ht="29" customHeight="1">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" ht="29" customHeight="1">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1182,34 +1182,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="20.46484375" style="4" customWidth="1"/>
-    <col min="3" max="5" width="20.46484375" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.6640625" style="13"/>
+    <col min="1" max="1" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="20.453125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.6328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="14.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
@@ -1241,11 +1241,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1253,13 +1253,13 @@
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="30">
         <v>4</v>
       </c>
       <c r="I2" s="8">
@@ -1284,19 +1284,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="28"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="8">
         <v>2</v>
       </c>
@@ -1319,19 +1319,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="14" customHeight="1">
       <c r="A4" s="23"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="8">
         <v>1</v>
       </c>
@@ -1354,9 +1354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="23"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="23" t="s">
         <v>32</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="14" customHeight="1">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="36" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="14" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="29"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="14" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="14" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="29"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="8" t="s">
         <v>25</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="14" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="29"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="14" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="29"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="14" customHeight="1">
       <c r="A12" s="23">
         <v>3</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="14" customHeight="1">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="28" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="23"/>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="14" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23" t="s">
@@ -1738,7 +1738,7 @@
       <c r="G15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="37">
         <v>12</v>
       </c>
       <c r="I15" s="8">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="28" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="36" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="23"/>
@@ -1775,7 +1775,7 @@
       <c r="G16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="8">
         <v>0</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="14" customHeight="1">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23" t="s">
@@ -1810,7 +1810,7 @@
       <c r="G17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="8">
         <v>0</v>
       </c>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" ht="28" customHeight="1">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="23"/>
@@ -1845,7 +1845,7 @@
       <c r="G18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="8">
         <v>0</v>
       </c>
@@ -1868,11 +1868,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15">
       <c r="A19" s="23">
         <v>4</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="30" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1946,19 +1946,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="20">
         <v>0</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15">
       <c r="A22" s="23">
         <v>5</v>
       </c>
@@ -2011,12 +2011,20 @@
       <c r="K22" s="17">
         <v>0</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="L22" s="17">
+        <v>1</v>
+      </c>
+      <c r="M22" s="17">
+        <v>3</v>
+      </c>
+      <c r="N22" s="17">
+        <v>3</v>
+      </c>
+      <c r="O22" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2051,6 +2059,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F6:F11"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="C1:E1"/>
@@ -2067,34 +2103,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/Backlog_250708.xlsx
+++ b/Backlog_250708.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\HKIIT\3rd Sem\ITP4475 Big Data and AI Project Management\EA\TAN_4475Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKIIT\Semester 3\ITP4475\project\TAN_4475Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEECE0-B2B6-450E-8A20-CAB32DC2972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647171FD-DBC2-42BB-A0E4-430BADCAF90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>Sprint</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Credit Limit Preditation for new customers</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>Evaluate and provide insights into issues</t>
@@ -221,24 +218,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -479,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,61 +497,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -566,12 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,18 +586,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -875,28 +868,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A5312A-647C-422B-B39D-B5DE1B0F2C4B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="13"/>
-    <col min="2" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="12.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="12"/>
+    <col min="2" max="4" width="9" style="13"/>
+    <col min="5" max="5" width="12.08203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -907,15 +900,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
@@ -926,224 +919,224 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="14" customHeight="1">
-      <c r="A8" s="10">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1">
-      <c r="A9" s="11">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="14" customHeight="1">
-      <c r="A10" s="11">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="14" customHeight="1">
-      <c r="A11" s="12">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="14" customHeight="1">
-      <c r="A12" s="9">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1">
-      <c r="A13" s="10">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1">
-      <c r="A14" s="11">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="18" spans="2:4" ht="29" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="2:4" ht="29" customHeight="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="2:4" ht="29" customHeight="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="18" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" ht="29" customHeight="1">
+    <row r="21" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" ht="29" customHeight="1">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="2:4" ht="29" customHeight="1">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="2:4" ht="29" customHeight="1">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="2:4" ht="29" customHeight="1">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="2:4" ht="29" customHeight="1">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="2:4" ht="29" customHeight="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="2:4" ht="29" customHeight="1">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+    <row r="22" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1182,34 +1175,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="3"/>
-    <col min="2" max="2" width="20.453125" style="4" customWidth="1"/>
-    <col min="3" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.6328125" style="13"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="20.4140625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="20.4140625" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>17</v>
@@ -1241,852 +1234,824 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="23">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="25">
         <v>4</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="23" t="s">
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="8">
+      <c r="H3" s="26"/>
+      <c r="I3" s="7">
         <v>2</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="14" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="23" t="s">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="8">
+      <c r="H4" s="33"/>
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="23" t="s">
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14" customHeight="1">
-      <c r="A6" s="23">
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="36" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <v>12</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="14" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23" t="s">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="H7" s="21"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
         <v>2</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="8" t="s">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="H8" s="21"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
         <v>2</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="14" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="H9" s="21"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <v>2</v>
       </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="8" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="H10" s="21"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
         <v>2</v>
       </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="14" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="H11" s="21"/>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
         <v>2</v>
       </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14" customHeight="1">
-      <c r="A12" s="23">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <v>3</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>12</v>
       </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
         <v>3</v>
       </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="8" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="H13" s="22"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
         <v>3</v>
       </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="28" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="36" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="8" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="H14" s="22"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
         <v>6</v>
       </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="14" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="28">
         <v>12</v>
       </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
         <v>4</v>
       </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="28" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="36" t="s">
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="18" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
+      <c r="H16" s="29"/>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
         <v>4</v>
       </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="14" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="8" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
+      <c r="H17" s="29"/>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
         <v>2</v>
       </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="28" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="36" t="s">
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="8" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
+      <c r="H18" s="29"/>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
         <v>2</v>
       </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="23">
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
         <v>4</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="30" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="21">
         <v>8</v>
       </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0</v>
-      </c>
-      <c r="L19" s="17">
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
         <v>1</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="15">
         <v>1</v>
       </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
-      <c r="O19" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="4" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
+      <c r="H20" s="21"/>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
         <v>2</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="15">
         <v>1</v>
       </c>
-      <c r="O20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="4" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="20">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20">
-        <v>0</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0</v>
-      </c>
-      <c r="L21" s="20">
-        <v>0</v>
-      </c>
-      <c r="M21" s="20">
-        <v>0</v>
-      </c>
-      <c r="N21" s="20">
+      <c r="H21" s="25"/>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="18">
         <v>2</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="23">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <v>5</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="23">
+      <c r="G22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="21">
         <v>12</v>
       </c>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17">
-        <v>0</v>
-      </c>
-      <c r="L22" s="17">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
         <v>1</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="15">
         <v>3</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="15">
         <v>3</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="16" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0</v>
-      </c>
-      <c r="K23" s="17">
-        <v>0</v>
-      </c>
-      <c r="L23" s="17">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17">
-        <v>0</v>
-      </c>
-      <c r="N23" s="17">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F6:F11"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="C1:E1"/>
@@ -2103,6 +2068,34 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
